--- a/public/sample_files/product_import.xlsx
+++ b/public/sample_files/product_import.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Product Name</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Alert Quantity</t>
-  </si>
-  <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>Sell Price</t>
   </si>
   <si>
     <t>Tax</t>
@@ -234,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,55 +553,49 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2">
         <v>23466</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -618,29 +606,23 @@
       <c r="R2">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>10.4</v>
-      </c>
-      <c r="T2">
-        <v>13</v>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
       </c>
       <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
-        <v>39</v>
+      <c r="V2">
+        <v>2</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_files/product_import.xlsx
+++ b/public/sample_files/product_import.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Product Name</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Alert Quantity</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
   </si>
   <si>
     <t>Tax</t>
@@ -228,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,49 +559,55 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2">
         <v>23466</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -606,23 +618,29 @@
       <c r="R2">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
+      <c r="S2">
+        <v>10.4</v>
+      </c>
+      <c r="T2">
+        <v>13</v>
       </c>
       <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_files/product_import.xlsx
+++ b/public/sample_files/product_import.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D219E-5657-48A3-AEFB-D9ECB26A7624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3444" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Product Name</t>
   </si>
@@ -70,12 +71,6 @@
     <t>Alert Quantity</t>
   </si>
   <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>Sell Price</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
@@ -109,9 +104,6 @@
     <t>Malik</t>
   </si>
   <si>
-    <t>B-01</t>
-  </si>
-  <si>
     <t>Kg,Pieces</t>
   </si>
   <si>
@@ -137,17 +129,20 @@
   </si>
   <si>
     <t>fixed</t>
+  </si>
+  <si>
+    <t>B-019366</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -267,6 +262,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -302,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,16 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,55 +588,49 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>23466</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -618,29 +641,23 @@
       <c r="R2">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>10.4</v>
-      </c>
-      <c r="T2">
-        <v>13</v>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
